--- a/data/trans_dic/P32C-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P32C-Provincia-trans_dic.xlsx
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01281540600456483</v>
+        <v>0.01297692522937579</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03419987723433784</v>
+        <v>0.03758235470501577</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01813042595410735</v>
+        <v>0.01986888124360034</v>
       </c>
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="5" t="n">
@@ -728,13 +728,13 @@
       </c>
       <c r="J5" s="5" t="inlineStr"/>
       <c r="K5" s="5" t="n">
-        <v>0.01246849779000861</v>
+        <v>0.008931499091260953</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.023723576490801</v>
+        <v>0.0245109863857872</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01745025601865455</v>
+        <v>0.01626243395152036</v>
       </c>
       <c r="N5" s="5" t="inlineStr"/>
     </row>
@@ -746,33 +746,33 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08202465086982913</v>
+        <v>0.08640810009571376</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1147930083390951</v>
+        <v>0.11512555842221</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08269531537558346</v>
+        <v>0.08619442221014895</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
-        <v>0.08687959183829924</v>
+        <v>0.0549750389973373</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05524892289129716</v>
+        <v>0.04713435051111101</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06207828341332785</v>
+        <v>0.06188933039463201</v>
       </c>
       <c r="J6" s="5" t="inlineStr"/>
       <c r="K6" s="5" t="n">
-        <v>0.06354616048193454</v>
+        <v>0.06078422243161052</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.07518544801826298</v>
+        <v>0.07142174212974876</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.06597757543258334</v>
+        <v>0.06140490214990149</v>
       </c>
       <c r="N6" s="5" t="inlineStr"/>
     </row>
@@ -832,13 +832,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.009373106797275117</v>
+        <v>0.009161373584388927</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.005735784354583729</v>
+        <v>0.005767675452046598</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01198877186844153</v>
+        <v>0.01202941791229752</v>
       </c>
       <c r="F8" s="5" t="inlineStr"/>
       <c r="G8" s="5" t="inlineStr"/>
@@ -846,13 +846,13 @@
       <c r="I8" s="5" t="inlineStr"/>
       <c r="J8" s="5" t="inlineStr"/>
       <c r="K8" s="5" t="n">
-        <v>0.006937526190660142</v>
+        <v>0.006782944196296335</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.003916988123170969</v>
+        <v>0.00392424634225164</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.008720344883631395</v>
+        <v>0.008592475389363459</v>
       </c>
       <c r="N8" s="5" t="inlineStr"/>
     </row>
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05244783306963308</v>
+        <v>0.05490121852036988</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03559701064313595</v>
+        <v>0.03687752753847388</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05223030102836974</v>
+        <v>0.0541378754761475</v>
       </c>
       <c r="F9" s="5" t="inlineStr"/>
       <c r="G9" s="5" t="inlineStr"/>
@@ -878,13 +878,13 @@
       <c r="I9" s="5" t="inlineStr"/>
       <c r="J9" s="5" t="inlineStr"/>
       <c r="K9" s="5" t="n">
-        <v>0.04138370570511695</v>
+        <v>0.03781473076685472</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02775480544221214</v>
+        <v>0.02418458881723495</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04034440473496742</v>
+        <v>0.04016903955090613</v>
       </c>
       <c r="N9" s="5" t="inlineStr"/>
     </row>
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0104175812701061</v>
+        <v>0.01083693654238558</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="inlineStr"/>
@@ -966,10 +966,10 @@
       </c>
       <c r="L11" s="5" t="inlineStr"/>
       <c r="M11" s="5" t="n">
-        <v>0.002665554846161024</v>
+        <v>0.002645557834688033</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.009644229842092629</v>
+        <v>0.009294887335345777</v>
       </c>
     </row>
     <row r="12">
@@ -980,32 +980,32 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02544334065702414</v>
+        <v>0.02428275373788415</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.02774888381341622</v>
+        <v>0.03290596852351663</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04652999870213133</v>
+        <v>0.04812087164121356</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>0.04620759710626984</v>
+        <v>0.04062687946639372</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.04503724330052858</v>
+        <v>0.03620530813553414</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01515528327727224</v>
+        <v>0.01501038547024727</v>
       </c>
       <c r="L12" s="5" t="inlineStr"/>
       <c r="M12" s="5" t="n">
-        <v>0.02352694451262938</v>
+        <v>0.02420034798585249</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03872478484200035</v>
+        <v>0.03806187764414995</v>
       </c>
     </row>
     <row r="13">
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.009755104496644145</v>
+        <v>0.009755104496644143</v>
       </c>
     </row>
     <row r="14">
@@ -1064,14 +1064,14 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.008195455687921929</v>
+        <v>0.008387089096500376</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.005370406002370366</v>
+        <v>0.005354714319201026</v>
       </c>
       <c r="E14" s="5" t="inlineStr"/>
       <c r="F14" s="5" t="n">
-        <v>0.003347714112677761</v>
+        <v>0.003196265244306647</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
@@ -1082,14 +1082,14 @@
         <v>0</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.007927683583876688</v>
+        <v>0.007951006490024358</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.003685697370078926</v>
+        <v>0.00364242793895552</v>
       </c>
       <c r="M14" s="5" t="inlineStr"/>
       <c r="N14" s="5" t="n">
-        <v>0.003279418240243762</v>
+        <v>0.003344341851403389</v>
       </c>
     </row>
     <row r="15">
@@ -1100,32 +1100,32 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05398443219425553</v>
+        <v>0.06074102482637069</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05324284378611365</v>
+        <v>0.0476987445487693</v>
       </c>
       <c r="E15" s="5" t="inlineStr"/>
       <c r="F15" s="5" t="n">
-        <v>0.03476780829911717</v>
+        <v>0.0324838399952121</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05514306958844421</v>
+        <v>0.06517920576496812</v>
       </c>
       <c r="H15" s="5" t="inlineStr"/>
       <c r="I15" s="5" t="inlineStr"/>
       <c r="J15" s="5" t="n">
-        <v>0.02341640570510514</v>
+        <v>0.02588589065256811</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04241061172036111</v>
+        <v>0.04483493770887905</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03470576924986159</v>
+        <v>0.03550146459257131</v>
       </c>
       <c r="M15" s="5" t="inlineStr"/>
       <c r="N15" s="5" t="n">
-        <v>0.0218367911296928</v>
+        <v>0.02135936780826073</v>
       </c>
     </row>
     <row r="16">
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.0432873656001445</v>
+        <v>0.04328736560014451</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.01770669713874713</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.007072139854852801</v>
+        <v>0.007106250752345822</v>
       </c>
       <c r="E17" s="5" t="inlineStr"/>
       <c r="F17" s="5" t="inlineStr"/>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.004975249354758363</v>
+        <v>0.005004921125762408</v>
       </c>
       <c r="M17" s="5" t="inlineStr"/>
       <c r="N17" s="5" t="n">
@@ -1218,30 +1218,30 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04770938414503432</v>
+        <v>0.04776059530045665</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06480874610479796</v>
+        <v>0.06601804425931104</v>
       </c>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="inlineStr"/>
       <c r="G18" s="5" t="n">
-        <v>0.1733906876547879</v>
+        <v>0.180359860112922</v>
       </c>
       <c r="H18" s="5" t="inlineStr"/>
       <c r="I18" s="5" t="inlineStr"/>
       <c r="J18" s="5" t="n">
-        <v>0.2265955634043678</v>
+        <v>0.2021144240837146</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.05842131633194196</v>
+        <v>0.06336260304441392</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.04839562130990576</v>
+        <v>0.04707481880117827</v>
       </c>
       <c r="M18" s="5" t="inlineStr"/>
       <c r="N18" s="5" t="n">
-        <v>0.0530872509344586</v>
+        <v>0.06296477134755402</v>
       </c>
     </row>
     <row r="19">
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.004938623316895345</v>
+        <v>0.004840446544671266</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>0</v>
@@ -1317,10 +1317,10 @@
       <c r="H20" s="5" t="inlineStr"/>
       <c r="I20" s="5" t="inlineStr"/>
       <c r="J20" s="5" t="n">
-        <v>0.005581450400035186</v>
+        <v>0.00557485496717549</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.002859642737595375</v>
+        <v>0.002858339554394211</v>
       </c>
       <c r="L20" s="5" t="n">
         <v>0</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.007783710021133856</v>
+        <v>0.007936495232280374</v>
       </c>
     </row>
     <row r="21">
@@ -1340,36 +1340,36 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.0360445080882107</v>
+        <v>0.03100877283017529</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.02623434454626236</v>
+        <v>0.03080064259521935</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.02666875347250206</v>
+        <v>0.02877871452366217</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.04212482633730503</v>
+        <v>0.04653436265333573</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.03736551319819476</v>
+        <v>0.04605948380828756</v>
       </c>
       <c r="H21" s="5" t="inlineStr"/>
       <c r="I21" s="5" t="inlineStr"/>
       <c r="J21" s="5" t="n">
-        <v>0.06402643089175027</v>
+        <v>0.0632151330576879</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.0257118404953001</v>
+        <v>0.02939070257129913</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.01894068002992329</v>
+        <v>0.0191050304177735</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.0192102545382533</v>
+        <v>0.01546729305414119</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.03984115752139494</v>
+        <v>0.03918469970606087</v>
       </c>
     </row>
     <row r="22">
@@ -1393,7 +1393,7 @@
         <v>0.0246006042173651</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.02000221775166459</v>
+        <v>0.0200022177516646</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0</v>
@@ -1405,7 +1405,7 @@
         <v>0.003865184164534658</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.02922240827316195</v>
+        <v>0.02922240827316194</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.01680372523283246</v>
@@ -1428,16 +1428,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01187719242103343</v>
+        <v>0.009341975981471422</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01013524253033685</v>
+        <v>0.01132170769796667</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01248213376054977</v>
+        <v>0.01340938232322963</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.008504378489454368</v>
+        <v>0.008808054092591383</v>
       </c>
       <c r="G23" s="5" t="inlineStr"/>
       <c r="H23" s="5" t="n">
@@ -1447,19 +1447,19 @@
         <v>0</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.009455601096762661</v>
+        <v>0.009195985628105753</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.006654732011873102</v>
+        <v>0.006369650349478801</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.008939644398882502</v>
+        <v>0.007924577673288337</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.007988571916299335</v>
+        <v>0.008039834278791434</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.01099813299402475</v>
+        <v>0.01159823742968452</v>
       </c>
     </row>
     <row r="24">
@@ -1470,38 +1470,38 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.05108168597557152</v>
+        <v>0.0471133716855682</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04172356766667738</v>
+        <v>0.04121322266583689</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04374795972882184</v>
+        <v>0.04466656942404914</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.03982107690062073</v>
+        <v>0.04050542489168833</v>
       </c>
       <c r="G24" s="5" t="inlineStr"/>
       <c r="H24" s="5" t="n">
-        <v>0.0243288582206778</v>
+        <v>0.02861141756180519</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.02109961808844567</v>
+        <v>0.01929852116642534</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.06891192119640384</v>
+        <v>0.0726270102615979</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.03626535582931601</v>
+        <v>0.03374857462644165</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.0294121630986482</v>
+        <v>0.02835159274497141</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.02998120721889585</v>
+        <v>0.02918671922987046</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.04352667424058445</v>
+        <v>0.04204839056147626</v>
       </c>
     </row>
     <row r="25">
@@ -1525,7 +1525,7 @@
         <v>0.009323908592250938</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.009602736959955638</v>
+        <v>0.00960273695995564</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.01270497344119137</v>
@@ -1560,19 +1560,19 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.006615383543060414</v>
+        <v>0.006708001150425311</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.007114408777594687</v>
+        <v>0.007120441994976414</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.002533231385458819</v>
+        <v>0.002542897785440657</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.002337975454151328</v>
+        <v>0.002310864728737544</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.004174111410769793</v>
+        <v>0.004186505125779841</v>
       </c>
       <c r="H26" s="5" t="n">
         <v>0</v>
@@ -1582,16 +1582,16 @@
       </c>
       <c r="J26" s="5" t="inlineStr"/>
       <c r="K26" s="5" t="n">
-        <v>0.007246528107837274</v>
+        <v>0.00724082268082047</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.004968635392101525</v>
+        <v>0.004964571875637359</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.003168857370420816</v>
+        <v>0.00323836542408088</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.001714243122156143</v>
+        <v>0.001721611207456219</v>
       </c>
     </row>
     <row r="27">
@@ -1602,38 +1602,38 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.02754641128194771</v>
+        <v>0.02661459405718012</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.03625736789947457</v>
+        <v>0.03870223738412042</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.0230720596221962</v>
+        <v>0.02375056359608542</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.02708104151459367</v>
+        <v>0.02861440427942686</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.03425004824942361</v>
+        <v>0.03456133498526293</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.02364647708908354</v>
+        <v>0.02864069944398037</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.03040093303942942</v>
+        <v>0.02818386437299041</v>
       </c>
       <c r="J27" s="5" t="inlineStr"/>
       <c r="K27" s="5" t="n">
-        <v>0.02384800097247735</v>
+        <v>0.02444072982563748</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.02768282104658141</v>
+        <v>0.02828993131643724</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.01857901645246805</v>
+        <v>0.01899100041533495</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.01974138335632098</v>
+        <v>0.02129630370896501</v>
       </c>
     </row>
     <row r="28">
@@ -1692,40 +1692,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.01281693896424134</v>
+        <v>0.01301971826147105</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.0141874989351376</v>
+        <v>0.01440559607124159</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.0108497081337066</v>
+        <v>0.01098864439370814</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.007756922608885372</v>
+        <v>0.007347989404332811</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.003933230639320762</v>
+        <v>0.003902136191402368</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.0009630792345362535</v>
+        <v>0.0009595856740596809</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.001914915120943003</v>
+        <v>0.001850456403285145</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.006341186129824283</v>
+        <v>0.005824101523974954</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.01116283748078772</v>
+        <v>0.01164475649040785</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.01039647863444479</v>
+        <v>0.01039946988470924</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.008696398831012439</v>
+        <v>0.00880114899556053</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.008516395485283866</v>
+        <v>0.008191063477085071</v>
       </c>
     </row>
     <row r="30">
@@ -1736,40 +1736,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.02601311303635077</v>
+        <v>0.02572882220392149</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.02727992250659002</v>
+        <v>0.02836668477726434</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.0221994370134335</v>
+        <v>0.02214979907232317</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.01742727797994687</v>
+        <v>0.01763653451445413</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.0185296062380959</v>
+        <v>0.0184296980178311</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.007838732907150991</v>
+        <v>0.008626124392514744</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.01149496371059047</v>
+        <v>0.0109407341170745</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.0261580429546209</v>
+        <v>0.02341685692354535</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.02079714728170491</v>
+        <v>0.02140319273544139</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.01923393796227092</v>
+        <v>0.01899899703076095</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.01693567000448033</v>
+        <v>0.01695520910173678</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.01714540060837011</v>
+        <v>0.01699467884024447</v>
       </c>
     </row>
     <row r="31">
@@ -2044,13 +2044,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1873</v>
+        <v>1897</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5996</v>
+        <v>6589</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3239</v>
+        <v>3550</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="n">
@@ -2064,13 +2064,13 @@
       </c>
       <c r="J6" s="6" t="inlineStr"/>
       <c r="K6" s="6" t="n">
-        <v>2738</v>
+        <v>1962</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>6762</v>
+        <v>6986</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>4953</v>
+        <v>4616</v>
       </c>
       <c r="N6" s="6" t="inlineStr"/>
     </row>
@@ -2082,33 +2082,33 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>11988</v>
+        <v>12628</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>20126</v>
+        <v>20184</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>14775</v>
+        <v>15401</v>
       </c>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="n">
-        <v>6384</v>
+        <v>4039</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>6060</v>
+        <v>5170</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>6530</v>
+        <v>6510</v>
       </c>
       <c r="J7" s="6" t="inlineStr"/>
       <c r="K7" s="6" t="n">
-        <v>13956</v>
+        <v>13350</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>21429</v>
+        <v>20356</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>18728</v>
+        <v>17430</v>
       </c>
       <c r="N7" s="6" t="inlineStr"/>
     </row>
@@ -2212,13 +2212,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2145</v>
+        <v>2096</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1774</v>
+        <v>1784</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3193</v>
+        <v>3204</v>
       </c>
       <c r="F10" s="6" t="inlineStr"/>
       <c r="G10" s="6" t="inlineStr"/>
@@ -2226,13 +2226,13 @@
       <c r="I10" s="6" t="inlineStr"/>
       <c r="J10" s="6" t="inlineStr"/>
       <c r="K10" s="6" t="n">
-        <v>2092</v>
+        <v>2046</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1796</v>
+        <v>1800</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>3206</v>
+        <v>3159</v>
       </c>
       <c r="N10" s="6" t="inlineStr"/>
     </row>
@@ -2244,13 +2244,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>12001</v>
+        <v>12562</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>11008</v>
+        <v>11403</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>13913</v>
+        <v>14421</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="inlineStr"/>
@@ -2258,13 +2258,13 @@
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="inlineStr"/>
       <c r="K11" s="6" t="n">
-        <v>12480</v>
+        <v>11404</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>12728</v>
+        <v>11091</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>14832</v>
+        <v>14768</v>
       </c>
       <c r="N11" s="6" t="inlineStr"/>
     </row>
@@ -2375,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1951</v>
+        <v>2030</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
@@ -2390,10 +2390,10 @@
       </c>
       <c r="L14" s="6" t="inlineStr"/>
       <c r="M14" s="6" t="n">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>2667</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="15">
@@ -2404,32 +2404,32 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4934</v>
+        <v>4709</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>5592</v>
+        <v>6632</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>8716</v>
+        <v>9014</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>5659</v>
+        <v>4976</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>4018</v>
+        <v>3230</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>4257</v>
+        <v>4217</v>
       </c>
       <c r="L15" s="6" t="inlineStr"/>
       <c r="M15" s="6" t="n">
-        <v>7623</v>
+        <v>7841</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>10708</v>
+        <v>10525</v>
       </c>
     </row>
     <row r="16">
@@ -2532,14 +2532,14 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1950</v>
+        <v>1995</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="E18" s="6" t="inlineStr"/>
       <c r="F18" s="6" t="n">
-        <v>681</v>
+        <v>650</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
@@ -2550,14 +2550,14 @@
         <v>0</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>2924</v>
+        <v>2933</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1010</v>
+        <v>999</v>
       </c>
       <c r="M18" s="6" t="inlineStr"/>
       <c r="N18" s="6" t="n">
-        <v>1121</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="19">
@@ -2568,32 +2568,32 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>12843</v>
+        <v>14450</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>9946</v>
+        <v>8910</v>
       </c>
       <c r="E19" s="6" t="inlineStr"/>
       <c r="F19" s="6" t="n">
-        <v>7073</v>
+        <v>6608</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>7220</v>
+        <v>8534</v>
       </c>
       <c r="H19" s="6" t="inlineStr"/>
       <c r="I19" s="6" t="inlineStr"/>
       <c r="J19" s="6" t="n">
-        <v>3240</v>
+        <v>3582</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>15642</v>
+        <v>16536</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>9514</v>
+        <v>9733</v>
       </c>
       <c r="M19" s="6" t="inlineStr"/>
       <c r="N19" s="6" t="n">
-        <v>7464</v>
+        <v>7301</v>
       </c>
     </row>
     <row r="20">
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="E22" s="6" t="inlineStr"/>
       <c r="F22" s="6" t="inlineStr"/>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>907</v>
+        <v>912</v>
       </c>
       <c r="M22" s="6" t="inlineStr"/>
       <c r="N22" s="6" t="n">
@@ -2730,30 +2730,30 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>4623</v>
+        <v>4628</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>8309</v>
+        <v>8464</v>
       </c>
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="inlineStr"/>
       <c r="G23" s="6" t="n">
-        <v>8201</v>
+        <v>8530</v>
       </c>
       <c r="H23" s="6" t="inlineStr"/>
       <c r="I23" s="6" t="inlineStr"/>
       <c r="J23" s="6" t="n">
-        <v>2457</v>
+        <v>2192</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>8424</v>
+        <v>9137</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>8823</v>
+        <v>8583</v>
       </c>
       <c r="M23" s="6" t="inlineStr"/>
       <c r="N23" s="6" t="n">
-        <v>2388</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="24">
@@ -2865,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
       <c r="H26" s="6" t="inlineStr"/>
       <c r="I26" s="6" t="inlineStr"/>
       <c r="J26" s="6" t="n">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K26" s="6" t="n">
         <v>875</v>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>2033</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="27">
@@ -2896,36 +2896,36 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>7003</v>
+        <v>6025</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>4859</v>
+        <v>5704</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>5021</v>
+        <v>5419</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>6865</v>
+        <v>7584</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>4177</v>
+        <v>5149</v>
       </c>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="inlineStr"/>
       <c r="J27" s="6" t="n">
-        <v>6287</v>
+        <v>6207</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>7870</v>
+        <v>8996</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>5292</v>
+        <v>5338</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>5615</v>
+        <v>4521</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>10405</v>
+        <v>10234</v>
       </c>
     </row>
     <row r="28">
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>3433</v>
+        <v>2700</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>3986</v>
+        <v>4453</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>4777</v>
+        <v>5132</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>2974</v>
+        <v>3080</v>
       </c>
       <c r="G30" s="6" t="inlineStr"/>
       <c r="H30" s="6" t="n">
@@ -3047,19 +3047,19 @@
         <v>0</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>2223</v>
+        <v>2162</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>2798</v>
+        <v>2678</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>5391</v>
+        <v>4778</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>5136</v>
+        <v>5169</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>6431</v>
+        <v>6782</v>
       </c>
     </row>
     <row r="31">
@@ -3070,38 +3070,38 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>14765</v>
+        <v>13618</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>16411</v>
+        <v>16210</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>16744</v>
+        <v>17095</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>13926</v>
+        <v>14165</v>
       </c>
       <c r="G31" s="6" t="inlineStr"/>
       <c r="H31" s="6" t="n">
-        <v>5101</v>
+        <v>5999</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>5490</v>
+        <v>5022</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>16198</v>
+        <v>17071</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>15249</v>
+        <v>14191</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>17735</v>
+        <v>17096</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>19276</v>
+        <v>18765</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>25452</v>
+        <v>24588</v>
       </c>
     </row>
     <row r="32">
@@ -3204,19 +3204,19 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>3261</v>
+        <v>3306</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>3235</v>
+        <v>3238</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1127</v>
+        <v>1131</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="H34" s="6" t="n">
         <v>0</v>
@@ -3226,16 +3226,16 @@
       </c>
       <c r="J34" s="6" t="inlineStr"/>
       <c r="K34" s="6" t="n">
-        <v>5310</v>
+        <v>5306</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>3327</v>
+        <v>3325</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>2209</v>
+        <v>2257</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>736</v>
+        <v>739</v>
       </c>
     </row>
     <row r="35">
@@ -3246,38 +3246,38 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>13577</v>
+        <v>13118</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>16488</v>
+        <v>17599</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>10262</v>
+        <v>10564</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>8513</v>
+        <v>8995</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>8218</v>
+        <v>8293</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>5082</v>
+        <v>6155</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>7667</v>
+        <v>7108</v>
       </c>
       <c r="J35" s="6" t="inlineStr"/>
       <c r="K35" s="6" t="n">
-        <v>17476</v>
+        <v>17911</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>18538</v>
+        <v>18944</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>12949</v>
+        <v>13236</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>8475</v>
+        <v>9142</v>
       </c>
     </row>
     <row r="36">
@@ -3380,40 +3380,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>24095</v>
+        <v>24476</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>28832</v>
+        <v>29276</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>21496</v>
+        <v>21771</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>13036</v>
+        <v>12348</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>3519</v>
+        <v>3491</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>2164</v>
+        <v>2091</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>5750</v>
+        <v>5281</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>30971</v>
+        <v>32308</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>31946</v>
+        <v>31955</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>27058</v>
+        <v>27384</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>22034</v>
+        <v>21192</v>
       </c>
     </row>
     <row r="39">
@@ -3424,40 +3424,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>48903</v>
+        <v>48368</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>55439</v>
+        <v>57648</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>43982</v>
+        <v>43884</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>29287</v>
+        <v>29638</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>16576</v>
+        <v>16487</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>8157</v>
+        <v>8976</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>12992</v>
+        <v>12365</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>23718</v>
+        <v>21233</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>57702</v>
+        <v>59383</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>59102</v>
+        <v>58380</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>52694</v>
+        <v>52755</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>44359</v>
+        <v>43969</v>
       </c>
     </row>
     <row r="40">
